--- a/Python 数据实验/实验测试2.0/数据源/数据集来源-去哪网/2019-12-23-10-5-11-1022008461176100-北京出发上海旅游线路推荐_要多少钱【最低报价】价格-去哪儿网-采集的数据-后羿采集器.xlsx
+++ b/Python 数据实验/实验测试2.0/数据源/数据集来源-去哪网/2019-12-23-10-5-11-1022008461176100-北京出发上海旅游线路推荐_要多少钱【最低报价】价格-去哪儿网-采集的数据-后羿采集器.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="11520" windowHeight="9155"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="353">
   <si>
     <t>标题</t>
   </si>
@@ -1075,25 +1078,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts x14ac:knownFonts="1" count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1101,24 +1447,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1440,15 +2072,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +2097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1469,8 +2107,14 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1480,8 +2124,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1491,8 +2141,14 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1502,8 +2158,14 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1513,8 +2175,14 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1524,8 +2192,14 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1535,8 +2209,14 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1546,8 +2226,14 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1557,8 +2243,14 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1568,8 +2260,14 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1579,8 +2277,14 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1590,8 +2294,14 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1601,8 +2311,14 @@
       <c r="C14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1612,8 +2328,14 @@
       <c r="C15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1623,8 +2345,14 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1634,8 +2362,14 @@
       <c r="C17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1645,8 +2379,14 @@
       <c r="C18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1656,8 +2396,14 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1667,8 +2413,14 @@
       <c r="C20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1678,8 +2430,14 @@
       <c r="C21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1689,8 +2447,14 @@
       <c r="C22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1700,8 +2464,14 @@
       <c r="C23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1711,8 +2481,14 @@
       <c r="C24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1722,8 +2498,14 @@
       <c r="C25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1733,8 +2515,14 @@
       <c r="C26" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1744,8 +2532,14 @@
       <c r="C27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -1755,8 +2549,14 @@
       <c r="C28" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1766,8 +2566,14 @@
       <c r="C29" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -1777,8 +2583,14 @@
       <c r="C30" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -1788,8 +2600,14 @@
       <c r="C31" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -1799,8 +2617,14 @@
       <c r="C32" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -1810,8 +2634,14 @@
       <c r="C33" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -1821,8 +2651,14 @@
       <c r="C34" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>40</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -1832,8 +2668,14 @@
       <c r="C35" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -1843,8 +2685,14 @@
       <c r="C36" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -1854,8 +2702,14 @@
       <c r="C37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -1865,8 +2719,14 @@
       <c r="C38" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -1876,8 +2736,14 @@
       <c r="C39" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -1887,8 +2753,14 @@
       <c r="C40" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -1898,8 +2770,14 @@
       <c r="C41" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -1909,8 +2787,14 @@
       <c r="C42" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -1920,8 +2804,14 @@
       <c r="C43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -1931,8 +2821,14 @@
       <c r="C44" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -1942,8 +2838,14 @@
       <c r="C45" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>40</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -1953,8 +2855,14 @@
       <c r="C46" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -1964,8 +2872,14 @@
       <c r="C47" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -1975,8 +2889,14 @@
       <c r="C48" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>40</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -1986,8 +2906,14 @@
       <c r="C49" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>40</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -1997,8 +2923,14 @@
       <c r="C50" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -2008,8 +2940,14 @@
       <c r="C51" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>148</v>
       </c>
@@ -2019,8 +2957,14 @@
       <c r="C52" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -2030,8 +2974,14 @@
       <c r="C53" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -2041,8 +2991,14 @@
       <c r="C54" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -2052,8 +3008,14 @@
       <c r="C55" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>40</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>159</v>
       </c>
@@ -2063,8 +3025,14 @@
       <c r="C56" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>40</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>162</v>
       </c>
@@ -2074,8 +3042,14 @@
       <c r="C57" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>40</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>165</v>
       </c>
@@ -2085,8 +3059,14 @@
       <c r="C58" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>40</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>168</v>
       </c>
@@ -2096,8 +3076,14 @@
       <c r="C59" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>171</v>
       </c>
@@ -2107,8 +3093,14 @@
       <c r="C60" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>40</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>174</v>
       </c>
@@ -2118,8 +3110,14 @@
       <c r="C61" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>177</v>
       </c>
@@ -2129,8 +3127,14 @@
       <c r="C62" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>40</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>180</v>
       </c>
@@ -2140,8 +3144,14 @@
       <c r="C63" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>40</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>183</v>
       </c>
@@ -2151,8 +3161,14 @@
       <c r="C64" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>40</v>
+      </c>
+      <c r="E64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>186</v>
       </c>
@@ -2162,8 +3178,14 @@
       <c r="C65" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>40</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>189</v>
       </c>
@@ -2173,8 +3195,14 @@
       <c r="C66" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>40</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>192</v>
       </c>
@@ -2184,8 +3212,14 @@
       <c r="C67" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>40</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>195</v>
       </c>
@@ -2195,8 +3229,14 @@
       <c r="C68" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>40</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>198</v>
       </c>
@@ -2206,8 +3246,14 @@
       <c r="C69" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>40</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -2217,8 +3263,14 @@
       <c r="C70" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>40</v>
+      </c>
+      <c r="E70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -2228,8 +3280,14 @@
       <c r="C71" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>40</v>
+      </c>
+      <c r="E71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>207</v>
       </c>
@@ -2239,8 +3297,14 @@
       <c r="C72" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>40</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>210</v>
       </c>
@@ -2250,8 +3314,14 @@
       <c r="C73" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>40</v>
+      </c>
+      <c r="E73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>213</v>
       </c>
@@ -2261,8 +3331,14 @@
       <c r="C74" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>40</v>
+      </c>
+      <c r="E74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>216</v>
       </c>
@@ -2272,8 +3348,14 @@
       <c r="C75" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>40</v>
+      </c>
+      <c r="E75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>219</v>
       </c>
@@ -2283,8 +3365,14 @@
       <c r="C76" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>40</v>
+      </c>
+      <c r="E76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>222</v>
       </c>
@@ -2294,8 +3382,14 @@
       <c r="C77" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>40</v>
+      </c>
+      <c r="E77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>225</v>
       </c>
@@ -2305,8 +3399,14 @@
       <c r="C78" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>40</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>228</v>
       </c>
@@ -2316,8 +3416,14 @@
       <c r="C79" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>40</v>
+      </c>
+      <c r="E79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>231</v>
       </c>
@@ -2327,8 +3433,14 @@
       <c r="C80" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>40</v>
+      </c>
+      <c r="E80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>234</v>
       </c>
@@ -2338,8 +3450,14 @@
       <c r="C81" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>40</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>237</v>
       </c>
@@ -2349,8 +3467,14 @@
       <c r="C82" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>40</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>240</v>
       </c>
@@ -2360,8 +3484,14 @@
       <c r="C83" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>40</v>
+      </c>
+      <c r="E83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>243</v>
       </c>
@@ -2371,8 +3501,14 @@
       <c r="C84" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>40</v>
+      </c>
+      <c r="E84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -2382,8 +3518,14 @@
       <c r="C85" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>40</v>
+      </c>
+      <c r="E85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>249</v>
       </c>
@@ -2393,8 +3535,14 @@
       <c r="C86" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>40</v>
+      </c>
+      <c r="E86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>252</v>
       </c>
@@ -2404,8 +3552,14 @@
       <c r="C87" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>40</v>
+      </c>
+      <c r="E87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>255</v>
       </c>
@@ -2415,8 +3569,14 @@
       <c r="C88" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>40</v>
+      </c>
+      <c r="E88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>258</v>
       </c>
@@ -2426,8 +3586,14 @@
       <c r="C89" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>40</v>
+      </c>
+      <c r="E89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>261</v>
       </c>
@@ -2437,8 +3603,14 @@
       <c r="C90" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>40</v>
+      </c>
+      <c r="E90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>264</v>
       </c>
@@ -2448,8 +3620,14 @@
       <c r="C91" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>40</v>
+      </c>
+      <c r="E91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>267</v>
       </c>
@@ -2459,8 +3637,14 @@
       <c r="C92" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>40</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>270</v>
       </c>
@@ -2470,8 +3654,14 @@
       <c r="C93" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>40</v>
+      </c>
+      <c r="E93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>273</v>
       </c>
@@ -2481,8 +3671,14 @@
       <c r="C94" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>40</v>
+      </c>
+      <c r="E94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>276</v>
       </c>
@@ -2492,8 +3688,14 @@
       <c r="C95" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>40</v>
+      </c>
+      <c r="E95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>279</v>
       </c>
@@ -2503,8 +3705,14 @@
       <c r="C96" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>40</v>
+      </c>
+      <c r="E96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>282</v>
       </c>
@@ -2514,8 +3722,14 @@
       <c r="C97" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>40</v>
+      </c>
+      <c r="E97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>285</v>
       </c>
@@ -2525,8 +3739,14 @@
       <c r="C98" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>40</v>
+      </c>
+      <c r="E98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>288</v>
       </c>
@@ -2536,8 +3756,14 @@
       <c r="C99" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>40</v>
+      </c>
+      <c r="E99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>291</v>
       </c>
@@ -2547,8 +3773,14 @@
       <c r="C100" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>40</v>
+      </c>
+      <c r="E100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>294</v>
       </c>
@@ -2558,8 +3790,14 @@
       <c r="C101" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>40</v>
+      </c>
+      <c r="E101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>297</v>
       </c>
@@ -2569,8 +3807,14 @@
       <c r="C102" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>40</v>
+      </c>
+      <c r="E102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>300</v>
       </c>
@@ -2580,8 +3824,14 @@
       <c r="C103" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>40</v>
+      </c>
+      <c r="E103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>303</v>
       </c>
@@ -2591,8 +3841,14 @@
       <c r="C104" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>40</v>
+      </c>
+      <c r="E104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>306</v>
       </c>
@@ -2602,8 +3858,14 @@
       <c r="C105" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>40</v>
+      </c>
+      <c r="E105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>309</v>
       </c>
@@ -2613,8 +3875,14 @@
       <c r="C106" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>40</v>
+      </c>
+      <c r="E106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>311</v>
       </c>
@@ -2624,8 +3892,14 @@
       <c r="C107" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>40</v>
+      </c>
+      <c r="E107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>314</v>
       </c>
@@ -2635,8 +3909,14 @@
       <c r="C108" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>40</v>
+      </c>
+      <c r="E108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>317</v>
       </c>
@@ -2646,8 +3926,14 @@
       <c r="C109" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>40</v>
+      </c>
+      <c r="E109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>320</v>
       </c>
@@ -2657,8 +3943,14 @@
       <c r="C110" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>40</v>
+      </c>
+      <c r="E110">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>323</v>
       </c>
@@ -2668,8 +3960,14 @@
       <c r="C111" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>40</v>
+      </c>
+      <c r="E111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>326</v>
       </c>
@@ -2679,8 +3977,14 @@
       <c r="C112" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>40</v>
+      </c>
+      <c r="E112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>329</v>
       </c>
@@ -2690,8 +3994,14 @@
       <c r="C113" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>40</v>
+      </c>
+      <c r="E113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>332</v>
       </c>
@@ -2701,8 +4011,14 @@
       <c r="C114" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>40</v>
+      </c>
+      <c r="E114">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>335</v>
       </c>
@@ -2712,8 +4028,14 @@
       <c r="C115" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>40</v>
+      </c>
+      <c r="E115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>338</v>
       </c>
@@ -2723,8 +4045,14 @@
       <c r="C116" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>40</v>
+      </c>
+      <c r="E116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -2734,8 +4062,14 @@
       <c r="C117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>40</v>
+      </c>
+      <c r="E117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>342</v>
       </c>
@@ -2745,8 +4079,14 @@
       <c r="C118" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>40</v>
+      </c>
+      <c r="E118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>345</v>
       </c>
@@ -2756,8 +4096,14 @@
       <c r="C119" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>40</v>
+      </c>
+      <c r="E119">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>348</v>
       </c>
@@ -2767,8 +4113,14 @@
       <c r="C120" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>40</v>
+      </c>
+      <c r="E120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>350</v>
       </c>
@@ -2778,9 +4130,16 @@
       <c r="C121" t="s">
         <v>352</v>
       </c>
+      <c r="D121">
+        <v>40</v>
+      </c>
+      <c r="E121">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>